--- a/HH Test cases.xlsx
+++ b/HH Test cases.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EmailIdsValidation" sheetId="6" r:id="rId1"/>
     <sheet name="CityNames" sheetId="4" r:id="rId2"/>
-    <sheet name="UserFiltersValidation" sheetId="2" r:id="rId3"/>
-    <sheet name="Testcases" sheetId="7" r:id="rId4"/>
+    <sheet name="CompanyNames" sheetId="8" r:id="rId3"/>
+    <sheet name="UserFiltersValidation" sheetId="2" r:id="rId4"/>
+    <sheet name="Testcases" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="299">
   <si>
     <t>Sector 1</t>
   </si>
@@ -857,33 +858,6 @@
     <t>No result found - Company should be NOT visible if results are NOT found and Valid value is entered</t>
   </si>
   <si>
-    <t>Input full company name</t>
-  </si>
-  <si>
-    <t>Input One character</t>
-  </si>
-  <si>
-    <t>Input one word</t>
-  </si>
-  <si>
-    <t>Input middle word</t>
-  </si>
-  <si>
-    <t>Input numbers</t>
-  </si>
-  <si>
-    <t>Input two words</t>
-  </si>
-  <si>
-    <t>Input custom company name</t>
-  </si>
-  <si>
-    <t>Input in Uppercase</t>
-  </si>
-  <si>
-    <t>Input in lower case</t>
-  </si>
-  <si>
     <t>User Management Page - Admin Filter</t>
   </si>
   <si>
@@ -900,6 +874,93 @@
   </si>
   <si>
     <t>In Review</t>
+  </si>
+  <si>
+    <t>validating The Company search Field - Input full company name</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input One character</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input one word</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input middle word</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input numbers</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input two words</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input custom company name</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input in Uppercase</t>
+  </si>
+  <si>
+    <t>validating The Company search Field -Input in lower case</t>
+  </si>
+  <si>
+    <t>ValidCompany Search Names</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>gle</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180 Life Sciences Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pharmaceuticals </t>
+  </si>
+  <si>
+    <t>X4 Pharmaceuticals Inc</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>TITAN PHARMACEUTICALS INC DEL WT EXP CL B 10/18/2024</t>
+  </si>
+  <si>
+    <t>Inc.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>Hospital - Cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Cedar</t>
+  </si>
+  <si>
+    <t>10/18</t>
   </si>
 </sst>
 </file>
@@ -957,12 +1018,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1472,7 +1534,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,6 +2104,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2618,12 +2798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2825,7 @@
         <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2839,7 @@
         <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2847,7 @@
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2855,7 @@
         <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,7 +2863,7 @@
         <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,7 +2871,7 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,7 +2879,7 @@
         <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,7 +2887,7 @@
         <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2895,7 @@
         <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2903,7 @@
         <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,7 +2911,7 @@
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2739,7 +2919,7 @@
         <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2747,7 +2927,7 @@
         <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,7 +2935,7 @@
         <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,7 +2943,7 @@
         <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,7 +2951,7 @@
         <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -2779,7 +2959,7 @@
         <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -2787,7 +2967,7 @@
         <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -2795,7 +2975,7 @@
         <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2803,7 +2983,7 @@
         <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -2811,7 +2991,7 @@
         <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -2819,7 +2999,7 @@
         <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -2827,7 +3007,7 @@
         <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2835,7 +3015,7 @@
         <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2843,7 +3023,7 @@
         <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2851,7 +3031,7 @@
         <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2859,7 +3039,7 @@
         <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -2867,7 +3047,7 @@
         <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2875,7 +3055,7 @@
         <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2883,7 +3063,7 @@
         <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2891,7 +3071,7 @@
         <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -2899,7 +3079,7 @@
         <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2907,7 +3087,7 @@
         <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,7 +3095,7 @@
         <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +3103,7 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,7 +3111,7 @@
         <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +3119,7 @@
         <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,7 +3127,7 @@
         <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,7 +3135,7 @@
         <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,7 +3143,7 @@
         <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,7 +3151,7 @@
         <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,7 +3159,7 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +3167,7 @@
         <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,7 +3181,7 @@
         <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3189,7 @@
         <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,7 +3197,7 @@
         <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,7 +3205,7 @@
         <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
@@ -3033,7 +3213,7 @@
         <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
@@ -3041,7 +3221,7 @@
         <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3049,7 +3229,7 @@
         <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
@@ -3057,7 +3237,7 @@
         <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
@@ -3065,7 +3245,7 @@
         <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
@@ -3073,7 +3253,7 @@
         <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
@@ -3081,7 +3261,7 @@
         <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
@@ -3089,7 +3269,7 @@
         <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3097,7 +3277,7 @@
         <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
@@ -3105,7 +3285,7 @@
         <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
@@ -3113,7 +3293,7 @@
         <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
@@ -3121,7 +3301,7 @@
         <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
@@ -3129,7 +3309,7 @@
         <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
@@ -3137,7 +3317,7 @@
         <v>241</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3145,7 +3325,7 @@
         <v>242</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
@@ -3153,7 +3333,7 @@
         <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
@@ -3161,7 +3341,7 @@
         <v>244</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
@@ -3169,7 +3349,7 @@
         <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
@@ -3177,7 +3357,7 @@
         <v>246</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
@@ -3185,7 +3365,7 @@
         <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
@@ -3193,7 +3373,7 @@
         <v>247</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
@@ -3201,7 +3381,7 @@
         <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
@@ -3209,7 +3389,7 @@
         <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
@@ -3217,7 +3397,7 @@
         <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
@@ -3225,7 +3405,7 @@
         <v>251</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
@@ -3233,7 +3413,7 @@
         <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
@@ -3241,7 +3421,7 @@
         <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3249,7 +3429,7 @@
         <v>254</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
@@ -3257,7 +3437,7 @@
         <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3265,7 +3445,7 @@
         <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3273,7 +3453,7 @@
         <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3281,7 +3461,7 @@
         <v>257</v>
       </c>
       <c r="D80" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3289,7 +3469,7 @@
         <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3297,7 +3477,7 @@
         <v>259</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
@@ -3305,7 +3485,7 @@
         <v>260</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
@@ -3313,7 +3493,7 @@
         <v>261</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
@@ -3321,7 +3501,7 @@
         <v>262</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -3329,7 +3509,7 @@
         <v>263</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
@@ -3337,7 +3517,7 @@
         <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
@@ -3345,79 +3525,79 @@
         <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,21 +3608,21 @@
         <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/HH Test cases.xlsx
+++ b/HH Test cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="EmailIdsValidation" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="301">
   <si>
     <t>Sector 1</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>10/18</t>
+  </si>
+  <si>
+    <t>just@example.com@fjdskjf.com</t>
+  </si>
+  <si>
+    <t>just@example.com@fjdskjf.co-.co.inm</t>
   </si>
 </sst>
 </file>
@@ -1327,16 +1333,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,9 +1481,6 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
       <c r="B18" t="s">
         <v>165</v>
       </c>
@@ -1521,6 +1523,21 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2106,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HH Test cases.xlsx
+++ b/HH Test cases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="322">
   <si>
     <t>Sector 1</t>
   </si>
@@ -967,6 +967,69 @@
   </si>
   <si>
     <t>just@example.com@fjdskjf.co-.co.inm</t>
+  </si>
+  <si>
+    <t>yigic19053@f1xm.com</t>
+  </si>
+  <si>
+    <t>jaxodaxi@kellychibale-researchgroup-uct.com</t>
+  </si>
+  <si>
+    <t>tovysire@ryteto.me</t>
+  </si>
+  <si>
+    <t>hudapy@decabg.eu</t>
+  </si>
+  <si>
+    <t>nofafudy@norwegischlernen.info</t>
+  </si>
+  <si>
+    <t>jumuxabe@ema-sofia.eu</t>
+  </si>
+  <si>
+    <t>sqiatoomgxphb@best-new-casino.com</t>
+  </si>
+  <si>
+    <t>care@1mg.com</t>
+  </si>
+  <si>
+    <t>tset.pa@multiple-words-in-this-domain-as-an-example.com</t>
+  </si>
+  <si>
+    <t>sadas@block521.com</t>
+  </si>
+  <si>
+    <t>asdas.asdasd@cloud-mail.top</t>
+  </si>
+  <si>
+    <t>p6shys1ogc@best-john-boats.com</t>
+  </si>
+  <si>
+    <t>unuwolnrdp@mails.omvvim.edu.in</t>
+  </si>
+  <si>
+    <t>coordinator@almaconnect.email</t>
+  </si>
+  <si>
+    <t>no-reply@info.incometax.gov.in</t>
+  </si>
+  <si>
+    <t>ria@3ding.in</t>
+  </si>
+  <si>
+    <t>noreply1@samsung.com</t>
+  </si>
+  <si>
+    <t>info@scroob.co.in</t>
+  </si>
+  <si>
+    <t>benefits@medibuddy.app</t>
+  </si>
+  <si>
+    <t>nimfupdates@campaign1.nipponindia.email</t>
+  </si>
+  <si>
+    <t>jobs-listings@linkedin.com</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,63 +1544,144 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>301</v>
+      </c>
       <c r="B18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
       <c r="B19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
       <c r="B20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
       <c r="B21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>305</v>
+      </c>
       <c r="B22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
       <c r="B23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
       <c r="B24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>308</v>
+      </c>
       <c r="B25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
       <c r="B26" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
       <c r="B27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
       <c r="B28" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>312</v>
+      </c>
       <c r="B29" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
